--- a/template_pegase_v1/histology.xlsx
+++ b/template_pegase_v1/histology.xlsx
@@ -12,33 +12,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
-  <si>
-    <t>fixation</t>
-  </si>
-  <si>
-    <t>numbermeasuringfield</t>
-  </si>
-  <si>
-    <t>embedding</t>
-  </si>
-  <si>
-    <t>organelleidentification</t>
-  </si>
-  <si>
-    <t>slicesize</t>
-  </si>
-  <si>
-    <t>magnification</t>
-  </si>
-  <si>
-    <t>pictureresolution</t>
-  </si>
-  <si>
-    <t>picturenumber</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
+    <t>Embedding</t>
+  </si>
+  <si>
+    <t>Fixation</t>
+  </si>
+  <si>
+    <t>SliceSize</t>
+  </si>
+  <si>
+    <t>Magnification</t>
+  </si>
+  <si>
+    <t>PictureResolution</t>
+  </si>
+  <si>
+    <t>NumberMeasuringField</t>
+  </si>
+  <si>
+    <t>PictureNumber</t>
+  </si>
+  <si>
+    <t>OrganelleIdentification</t>
   </si>
   <si>
     <t>#string</t>
+  </si>
+  <si>
+    <t>#date</t>
   </si>
   <si>
     <t>#integer</t>
@@ -86,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -117,31 +141,73 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/histology.xlsx
+++ b/template_pegase_v1/histology.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Operator</t>
   </si>
@@ -65,7 +65,61 @@
     <t>#date</t>
   </si>
   <si>
+    <t>#integer,  unit:µm</t>
+  </si>
+  <si>
+    <t>#float</t>
+  </si>
+  <si>
+    <t>#integer,  unit:pixel/µm</t>
+  </si>
+  <si>
     <t>#integer</t>
+  </si>
+  <si>
+    <t>#Manipulateur</t>
+  </si>
+  <si>
+    <t>#Desc:IdentifiantEchantillon</t>
+  </si>
+  <si>
+    <t>#Date</t>
+  </si>
+  <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
+    <t>#Inclusion</t>
+  </si>
+  <si>
+    <t>#Fixation</t>
+  </si>
+  <si>
+    <t>#EpaisseurCoupe</t>
+  </si>
+  <si>
+    <t>#Grossissement</t>
+  </si>
+  <si>
+    <t>#ResolutionImage</t>
+  </si>
+  <si>
+    <t>#NumeroChampMesure</t>
+  </si>
+  <si>
+    <t>#MumeroImage</t>
+  </si>
+  <si>
+    <t>#NomOrganite</t>
   </si>
 </sst>
 </file>
@@ -110,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -195,19 +249,66 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/histology.xlsx
+++ b/template_pegase_v1/histology.xlsx
@@ -14,27 +14,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Operator</t>
   </si>
   <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
     <t>SampleID</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>LaboratoryOperatingMode</t>
-  </si>
-  <si>
-    <t>CriticalApparatusCriticalSoftware</t>
-  </si>
-  <si>
-    <t>CriticalProduct</t>
-  </si>
-  <si>
-    <t>RawDataPathway</t>
-  </si>
-  <si>
     <t>Embedding</t>
   </si>
   <si>
@@ -59,12 +59,12 @@
     <t>OrganelleIdentification</t>
   </si>
   <si>
+    <t>#date</t>
+  </si>
+  <si>
     <t>#string</t>
   </si>
   <si>
-    <t>#date</t>
-  </si>
-  <si>
     <t>#integer,  unit:µm</t>
   </si>
   <si>
@@ -77,25 +77,25 @@
     <t>#integer</t>
   </si>
   <si>
+    <t>#Date</t>
+  </si>
+  <si>
     <t>#Manipulateur</t>
   </si>
   <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
     <t>#Desc:IdentifiantEchantillon</t>
-  </si>
-  <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
   </si>
   <si>
     <t>#Inclusion</t>
@@ -222,28 +222,28 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -261,7 +261,7 @@
         <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">

--- a/template_pegase_v1/histology.xlsx
+++ b/template_pegase_v1/histology.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -26,7 +26,10 @@
     <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>CriticalProduct</t>
+    <t>CriticalProductReference</t>
+  </si>
+  <si>
+    <t>CriticalProductLot</t>
   </si>
   <si>
     <t>RawDataPathway</t>
@@ -59,6 +62,9 @@
     <t>OrganelleIdentification</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>#date</t>
   </si>
   <si>
@@ -77,25 +83,28 @@
     <t>#integer</t>
   </si>
   <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#Manipulateur</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
-  </si>
-  <si>
-    <t>#Desc:IdentifiantEchantillon</t>
+    <t>#Date format jj/mm/aaa</t>
+  </si>
+  <si>
+    <t>#Manipulateur (LDAP)</t>
+  </si>
+  <si>
+    <t>#Mode Operatoire de Laboratoire (MOL)</t>
+  </si>
+  <si>
+    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes</t>
+  </si>
+  <si>
+    <t>#Identifiant de l'echantillon</t>
   </si>
   <si>
     <t>#Inclusion</t>
@@ -120,6 +129,9 @@
   </si>
   <si>
     <t>#NomOrganite</t>
+  </si>
+  <si>
+    <t>#Commentaire</t>
   </si>
 </sst>
 </file>
@@ -164,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -216,99 +228,117 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/histology.xlsx
+++ b/template_pegase_v1/histology.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+  <si>
+    <t>AnalysisDate</t>
   </si>
   <si>
     <t>Operator</t>
   </si>
   <si>
-    <t>LaboratoryOperatingMode</t>
+    <t>LaboratoryOperatingModeCode</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingModeName</t>
   </si>
   <si>
     <t>CriticalApparatusCriticalSoftware</t>
@@ -38,6 +41,9 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Embedding</t>
   </si>
   <si>
@@ -53,16 +59,61 @@
     <t>PictureResolution</t>
   </si>
   <si>
-    <t>NumberMeasuringField</t>
-  </si>
-  <si>
-    <t>PictureNumber</t>
+    <t>PictureName</t>
   </si>
   <si>
     <t>OrganelleIdentification</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t># Date de l'analyse</t>
+  </si>
+  <si>
+    <t># Manipulateur</t>
+  </si>
+  <si>
+    <t># Code Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Nom Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Appareil ou logiciel critique</t>
+  </si>
+  <si>
+    <t># Fournisseur et ref.  produits critiques</t>
+  </si>
+  <si>
+    <t># Numéro de lot produits critiques</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes.</t>
+  </si>
+  <si>
+    <t># Identifiant de l'echantillon</t>
+  </si>
+  <si>
+    <t># Commentaire</t>
+  </si>
+  <si>
+    <t># Type d'inclusion</t>
+  </si>
+  <si>
+    <t># Type de fixation</t>
+  </si>
+  <si>
+    <t># Epaisseur de la coupe</t>
+  </si>
+  <si>
+    <t># Grossissement</t>
+  </si>
+  <si>
+    <t># Resolution de l'image (pixel/µm)</t>
+  </si>
+  <si>
+    <t># Nom de l'image</t>
+  </si>
+  <si>
+    <t># Nom de l'organite</t>
   </si>
   <si>
     <t>#date</t>
@@ -71,67 +122,99 @@
     <t>#string</t>
   </si>
   <si>
-    <t>#integer,  unit:µm</t>
+    <t>#integer,
+  unit:µm</t>
   </si>
   <si>
     <t>#float</t>
   </si>
   <si>
-    <t>#integer,  unit:pixel/µm</t>
-  </si>
-  <si>
-    <t>#integer</t>
-  </si>
-  <si>
-    <t>#Date format jj/mm/aaa</t>
-  </si>
-  <si>
-    <t>#Manipulateur (LDAP)</t>
-  </si>
-  <si>
-    <t>#Mode Operatoire de Laboratoire (MOL)</t>
-  </si>
-  <si>
-    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t># Lieu de stockage des donnees brutes</t>
-  </si>
-  <si>
-    <t>#Identifiant de l'echantillon</t>
-  </si>
-  <si>
-    <t>#Inclusion</t>
-  </si>
-  <si>
-    <t>#Fixation</t>
-  </si>
-  <si>
-    <t>#EpaisseurCoupe</t>
-  </si>
-  <si>
-    <t>#Grossissement</t>
-  </si>
-  <si>
-    <t>#ResolutionImage</t>
-  </si>
-  <si>
-    <t>#NumeroChampMesure</t>
-  </si>
-  <si>
-    <t>#MumeroImage</t>
-  </si>
-  <si>
-    <t>#NomOrganite</t>
-  </si>
-  <si>
-    <t>#Commentaire</t>
+    <t>#integer,
+  unit:pixel/µm</t>
+  </si>
+  <si>
+    <t># format:  jj/mm/aaa</t>
+  </si>
+  <si>
+    <t># format: texte, identifiant LDAP</t>
+  </si>
+  <si>
+    <t># format: texte, MO-LAB-XXX, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs appareils/logiciels utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer. Conserver le même ordre que dans la colonne Référence des produits.</t>
+  </si>
+  <si>
+    <t># format: texte</t>
+  </si>
+  <si>
+    <t># format: texte, à définir....</t>
+  </si>
+  <si>
+    <t># format: texte libre</t>
+  </si>
+  <si>
+    <t># format: nombre entier</t>
+  </si>
+  <si>
+    <t># ex: 12/06/2019</t>
+  </si>
+  <si>
+    <t># ex: fherault</t>
+  </si>
+  <si>
+    <t># ex:  MO-LAB-029 ou MO-LAB-NA si pas de code</t>
+  </si>
+  <si>
+    <t># ex: Dosage du Glutathion dans les tissus</t>
+  </si>
+  <si>
+    <t># ex: Konélab20; appareil2; appareil3</t>
+  </si>
+  <si>
+    <t># ex: THERMO 981304;sCal 981831;Nortrol 981043;Abtrol 981044</t>
+  </si>
+  <si>
+    <t># ex : S415;G716;H342;H654</t>
+  </si>
+  <si>
+    <t># ex: //Konelab37/results/</t>
+  </si>
+  <si>
+    <t># ex: ....</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t># ex: Parafine</t>
+  </si>
+  <si>
+    <t># ex: ...</t>
+  </si>
+  <si>
+    <t># ex: 1 µm</t>
+  </si>
+  <si>
+    <t># ex: 10.0</t>
+  </si>
+  <si>
+    <t># ex: 250</t>
+  </si>
+  <si>
+    <t># ex:...</t>
+  </si>
+  <si>
+    <t># ex: mitochondrie</t>
   </si>
 </sst>
 </file>
@@ -176,7 +259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -243,102 +326,208 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/histology.xlsx
+++ b/template_pegase_v1/histology.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>AnalysisDate</t>
   </si>
@@ -41,30 +41,33 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Embedding</t>
+  </si>
+  <si>
+    <t>Fixation</t>
+  </si>
+  <si>
+    <t>SliceSize</t>
+  </si>
+  <si>
+    <t>Magnification</t>
+  </si>
+  <si>
+    <t>PictureSize</t>
+  </si>
+  <si>
+    <t>PictureResolution</t>
+  </si>
+  <si>
+    <t>PictureName</t>
+  </si>
+  <si>
+    <t>OrganelleIdentification</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Embedding</t>
-  </si>
-  <si>
-    <t>Fixation</t>
-  </si>
-  <si>
-    <t>SliceSize</t>
-  </si>
-  <si>
-    <t>Magnification</t>
-  </si>
-  <si>
-    <t>PictureResolution</t>
-  </si>
-  <si>
-    <t>PictureName</t>
-  </si>
-  <si>
-    <t>OrganelleIdentification</t>
-  </si>
-  <si>
     <t># Date de l'analyse</t>
   </si>
   <si>
@@ -92,28 +95,31 @@
     <t># Identifiant de l'echantillon</t>
   </si>
   <si>
+    <t># Type d'inclusion</t>
+  </si>
+  <si>
+    <t># Type de fixation</t>
+  </si>
+  <si>
+    <t># Epaisseur de la coupe</t>
+  </si>
+  <si>
+    <t># Grossissement</t>
+  </si>
+  <si>
+    <t># Taille de l'image</t>
+  </si>
+  <si>
+    <t># Resolution de l'image (µm/pixel)</t>
+  </si>
+  <si>
+    <t># Nom de l'image</t>
+  </si>
+  <si>
+    <t># Nom de l'organite</t>
+  </si>
+  <si>
     <t># Commentaire</t>
-  </si>
-  <si>
-    <t># Type d'inclusion</t>
-  </si>
-  <si>
-    <t># Type de fixation</t>
-  </si>
-  <si>
-    <t># Epaisseur de la coupe</t>
-  </si>
-  <si>
-    <t># Grossissement</t>
-  </si>
-  <si>
-    <t># Resolution de l'image (pixel/µm)</t>
-  </si>
-  <si>
-    <t># Nom de l'image</t>
-  </si>
-  <si>
-    <t># Nom de l'organite</t>
   </si>
   <si>
     <t>#date</t>
@@ -130,7 +136,7 @@
   </si>
   <si>
     <t>#integer,
-  unit:pixel/µm</t>
+  unit:µm/pixel</t>
   </si>
   <si>
     <t># format:  jj/mm/aaa</t>
@@ -160,12 +166,18 @@
     <t># format: texte, à définir....</t>
   </si>
   <si>
+    <t># format: nombre entier</t>
+  </si>
+  <si>
+    <t># format: nombre entier, ne pas spécifier l'unité</t>
+  </si>
+  <si>
+    <t># format: nombre décimal</t>
+  </si>
+  <si>
     <t># format: texte libre</t>
   </si>
   <si>
-    <t># format: nombre entier</t>
-  </si>
-  <si>
     <t># ex: 12/06/2019</t>
   </si>
   <si>
@@ -193,28 +205,31 @@
     <t># ex: ....</t>
   </si>
   <si>
+    <t># ex: Parafine</t>
+  </si>
+  <si>
+    <t># ex: Paraformaldehyde</t>
+  </si>
+  <si>
+    <t># ex: 1 µm</t>
+  </si>
+  <si>
+    <t># ex: 10.0</t>
+  </si>
+  <si>
+    <t># ex: 250</t>
+  </si>
+  <si>
+    <t># ex: 0.33</t>
+  </si>
+  <si>
+    <t># ex: ch5138N1</t>
+  </si>
+  <si>
+    <t># ex: mitochondrie</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t># ex: Parafine</t>
-  </si>
-  <si>
-    <t># ex: ...</t>
-  </si>
-  <si>
-    <t># ex: 1 µm</t>
-  </si>
-  <si>
-    <t># ex: 10.0</t>
-  </si>
-  <si>
-    <t># ex: 250</t>
-  </si>
-  <si>
-    <t># ex:...</t>
-  </si>
-  <si>
-    <t># ex: mitochondrie</t>
   </si>
 </sst>
 </file>
@@ -259,7 +274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -317,217 +332,232 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q4" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="R5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
